--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Cluster name</t>
   </si>
@@ -46,16 +46,16 @@
     <t>Best&amp;Less Fountain Gate Narre Warren</t>
   </si>
   <si>
-    <t>Broadmeadows Medical Centre Broadmeadows</t>
-  </si>
-  <si>
     <t>Budget Car and Truck Rentals Campbellfield</t>
   </si>
   <si>
+    <t>CS Square Caroline Springs</t>
+  </si>
+  <si>
     <t>Campbellfield Heights Primary School Campbellfield</t>
   </si>
   <si>
-    <t>Can Panel Campbellfield</t>
+    <t>Can Panel Cambellfield</t>
   </si>
   <si>
     <t>Cannie Road Construction Site Cannie</t>
@@ -76,15 +76,15 @@
     <t>City of Moreland Community</t>
   </si>
   <si>
+    <t>City of Wyndham Community</t>
+  </si>
+  <si>
     <t>Classy Cabinets and Kitchens Craigieburn</t>
   </si>
   <si>
     <t>Coles Aurora Village Epping</t>
   </si>
   <si>
-    <t>Coles Barkly Square Brunswick August</t>
-  </si>
-  <si>
     <t>Coles Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
@@ -94,9 +94,6 @@
     <t>Coles Coburg North Village</t>
   </si>
   <si>
-    <t>Coles Coburg North Village Aug</t>
-  </si>
-  <si>
     <t>Coles Greenvale Shopping Centre</t>
   </si>
   <si>
@@ -118,15 +115,15 @@
     <t>Croydon Orthodontics</t>
   </si>
   <si>
-    <t>Direct Freight Express Campbellield</t>
+    <t>DRC Laverton Automotive Repairs Laverton North</t>
+  </si>
+  <si>
+    <t>Direct Freight Express Cambellfield</t>
   </si>
   <si>
     <t>Elite Smart Community Care Campbellfield</t>
   </si>
   <si>
-    <t>Ernst and Young 8 Exhibition Street Melbourne</t>
-  </si>
-  <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
@@ -145,10 +142,7 @@
     <t>Ilim College Glenroy Campus Hadfield</t>
   </si>
   <si>
-    <t>Ilim College Kiewa Campus Boys Secondary Dallas</t>
-  </si>
-  <si>
-    <t>Ilim Leaning Sanctuary Glenroy</t>
+    <t>Ilim Learning Sanctuary Glenroy</t>
   </si>
   <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
@@ -178,9 +172,6 @@
     <t>Linfox Somerton National Distribution Centre Somerton</t>
   </si>
   <si>
-    <t>Malvern Health and Fitness Clinic Malvern</t>
-  </si>
-  <si>
     <t>McDonalds Thomastown II</t>
   </si>
   <si>
@@ -211,15 +202,15 @@
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
+    <t>National Gallery of Victoria Melbourne</t>
+  </si>
+  <si>
     <t>Newbury Child and Community Centre Craigieburn</t>
   </si>
   <si>
     <t>Newport Football Club Altona North</t>
   </si>
   <si>
-    <t>Newport Gardens Early Years Centre Newport</t>
-  </si>
-  <si>
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
@@ -250,12 +241,12 @@
     <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
   </si>
   <si>
+    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
+  </si>
+  <si>
     <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
   </si>
   <si>
-    <t>Serco Mill Park</t>
-  </si>
-  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
@@ -277,22 +268,22 @@
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
   </si>
   <si>
-    <t>Werribee Mercy Hospistal Emergency Department</t>
+    <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Who is Bunker Spreckels Cafe Elwood</t>
-  </si>
-  <si>
     <t>Woodlands Long Day Care and Kindergarten Roxburgh Park</t>
   </si>
   <si>
     <t>Woolworths Greenvale Lakes Roxburgh Park</t>
   </si>
   <si>
-    <t>Yarra Childcare Centre Truganina</t>
+    <t>Yara Childcare Centre Truganina</t>
   </si>
 </sst>
 </file>
@@ -650,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -701,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -709,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -733,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -741,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -797,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -805,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -813,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -821,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -829,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -845,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -853,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -869,7 +860,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -877,7 +868,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -885,7 +876,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -893,7 +884,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -901,7 +892,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -909,7 +900,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -925,7 +916,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -941,7 +932,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -949,7 +940,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -957,7 +948,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -965,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -973,7 +964,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -981,7 +972,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -989,7 +980,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -997,7 +988,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1005,7 +996,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1013,7 +1004,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1021,7 +1012,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1029,7 +1020,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1045,7 +1036,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1053,7 +1044,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1061,7 +1052,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1077,7 +1068,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1085,7 +1076,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1101,7 +1092,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1109,7 +1100,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1133,7 +1124,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1141,7 +1132,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1149,7 +1140,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1157,7 +1148,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1165,7 +1156,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1173,7 +1164,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1189,7 +1180,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1197,7 +1188,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1205,7 +1196,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1213,7 +1204,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1221,7 +1212,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1229,7 +1220,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1237,7 +1228,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1245,7 +1236,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1253,7 +1244,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1261,7 +1252,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1269,7 +1260,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1277,7 +1268,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1285,7 +1276,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1293,7 +1284,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1301,7 +1292,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1309,7 +1300,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1317,7 +1308,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1325,7 +1316,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1341,7 +1332,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1349,7 +1340,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1357,7 +1348,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1365,31 +1356,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,13 +22,13 @@
     <t>Active cases</t>
   </si>
   <si>
+    <t>253 Hoddle Street Apartment Complex Collingwood</t>
+  </si>
+  <si>
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
-    <t>7 Chefs Fawkner</t>
-  </si>
-  <si>
-    <t>A1 Bakery Brunswick</t>
+    <t>ABD Group 512 Melbourne Road Construction Site Spotswood</t>
   </si>
   <si>
     <t>Acquire BPO Southbank</t>
@@ -52,12 +52,6 @@
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
-    <t>Campbellfield Heights Primary School Campbellfield</t>
-  </si>
-  <si>
-    <t>Can Panel Cambellfield</t>
-  </si>
-  <si>
     <t>Cannie Road Construction Site Cannie</t>
   </si>
   <si>
@@ -112,24 +106,27 @@
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
-    <t>Croydon Orthodontics</t>
+    <t>Crusader Caravans Epping</t>
   </si>
   <si>
     <t>DRC Laverton Automotive Repairs Laverton North</t>
   </si>
   <si>
-    <t>Direct Freight Express Cambellfield</t>
-  </si>
-  <si>
-    <t>Elite Smart Community Care Campbellfield</t>
+    <t>Direct Freight Express Campbellfield</t>
   </si>
   <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
+    <t>Fonterra Manufacturing Workplace Campbellfield</t>
+  </si>
+  <si>
     <t>Glenroy West Primary School</t>
   </si>
   <si>
+    <t>Gumboots Early Learning Centre South Morang</t>
+  </si>
+  <si>
     <t>Hamilton Marino 236 Jasper Road McKinnon</t>
   </si>
   <si>
@@ -139,6 +136,12 @@
     <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
   </si>
   <si>
+    <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
+  </si>
+  <si>
+    <t>Ibis Kingsgate Hotel Melbourne</t>
+  </si>
+  <si>
     <t>Ilim College Glenroy Campus Hadfield</t>
   </si>
   <si>
@@ -208,9 +211,6 @@
     <t>Newbury Child and Community Centre Craigieburn</t>
   </si>
   <si>
-    <t>Newport Football Club Altona North</t>
-  </si>
-  <si>
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
@@ -259,10 +259,10 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>Tip Top Warehouse Dandenong</t>
-  </si>
-  <si>
-    <t>Tunstall Fresh Tunstall Square Shopping Centre Doncaster East</t>
+    <t>ThorwestenCabinets Pakenham</t>
+  </si>
+  <si>
+    <t>Total Window Concepts Hoppers Crossing</t>
   </si>
   <si>
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
@@ -641,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -684,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -692,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -700,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -716,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -732,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -740,7 +740,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -748,7 +748,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -756,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -764,7 +764,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -772,7 +772,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -780,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -788,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -796,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -812,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -820,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -828,7 +828,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -836,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -844,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -852,7 +852,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -860,7 +860,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -868,7 +868,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -876,7 +876,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -884,7 +884,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -892,7 +892,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -900,7 +900,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -908,7 +908,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -916,7 +916,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -932,7 +932,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -940,7 +940,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -948,7 +948,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -972,7 +972,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -980,7 +980,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -996,7 +996,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1164,84 +1164,84 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>9</v>
@@ -1249,114 +1249,122 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="B89">
-        <v>13</v>
+      <c r="B90">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Active cases</t>
   </si>
   <si>
-    <t>253 Hoddle Street Apartment Complex Collingwood</t>
-  </si>
-  <si>
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
@@ -34,15 +31,15 @@
     <t>Acquire BPO Southbank</t>
   </si>
   <si>
+    <t>Adorn Cosmetics Clayton</t>
+  </si>
+  <si>
     <t>Al Haj Halal Meats Glenroy</t>
   </si>
   <si>
     <t>Al-Taqwa College Truganina</t>
   </si>
   <si>
-    <t>Amiga Montessori Craigieburn</t>
-  </si>
-  <si>
     <t>Best&amp;Less Fountain Gate Narre Warren</t>
   </si>
   <si>
@@ -61,12 +58,12 @@
     <t>Cedars Medical Clinic Coburg</t>
   </si>
   <si>
+    <t>Chemist Warehouse Campbellfield DC</t>
+  </si>
+  <si>
     <t>Chemist Warehouse Fillo Drive Somerton</t>
   </si>
   <si>
-    <t>City of Hobsons Bay Community</t>
-  </si>
-  <si>
     <t>City of Moreland Community</t>
   </si>
   <si>
@@ -112,7 +109,10 @@
     <t>DRC Laverton Automotive Repairs Laverton North</t>
   </si>
   <si>
-    <t>Direct Freight Express Campbellfield</t>
+    <t>Direct Freight Express Cambellfield</t>
+  </si>
+  <si>
+    <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
   </si>
   <si>
     <t>Fitzroy Community School Fitzroy North</t>
@@ -124,6 +124,12 @@
     <t>Glenroy West Primary School</t>
   </si>
   <si>
+    <t>Goodstart Early Learning Altona</t>
+  </si>
+  <si>
+    <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
+  </si>
+  <si>
     <t>Gumboots Early Learning Centre South Morang</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>Ilim Learning Sanctuary Glenroy</t>
   </si>
   <si>
+    <t>Impact Designer Homes Epping</t>
+  </si>
+  <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
@@ -214,28 +223,31 @@
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
-    <t>Nino Early Learning Adventures Lalor</t>
-  </si>
-  <si>
     <t>North Geelong House Party</t>
   </si>
   <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
+    <t>Northern Health The Northern Hospital Epping</t>
+  </si>
+  <si>
     <t>OnQ Plumbing and Excavations Craigieburn</t>
   </si>
   <si>
     <t>Oporto Coolaroo</t>
   </si>
   <si>
+    <t>Our Lady Help of Christian's Primary School Brunswick East</t>
+  </si>
+  <si>
     <t>Paisley Park Early Learning Centre Bundoora</t>
   </si>
   <si>
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
-    <t>People First Healthcare Home Residence Disability Support Taylors Lakes</t>
+    <t>Private Residence Northern Community Services Fawkner</t>
   </si>
   <si>
     <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
@@ -245,6 +257,9 @@
   </si>
   <si>
     <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
+  </si>
+  <si>
+    <t>Sharpline Stainless Steel Coburg North</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
@@ -641,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -668,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -676,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -684,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -692,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -700,7 +715,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -708,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -716,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -724,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -740,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -748,20 +763,20 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -769,7 +784,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -777,23 +792,23 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -801,7 +816,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -809,7 +824,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -817,23 +832,23 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -841,55 +856,55 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -897,7 +912,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -905,231 +920,231 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -1137,34 +1152,34 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1172,7 +1187,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1180,7 +1195,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1188,7 +1203,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1196,7 +1211,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1204,7 +1219,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1212,7 +1227,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1220,7 +1235,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1228,7 +1243,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1236,7 +1251,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1244,7 +1259,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1252,7 +1267,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1260,7 +1275,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1276,7 +1291,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1284,7 +1299,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1292,7 +1307,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1300,7 +1315,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1308,7 +1323,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1316,7 +1331,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1324,7 +1339,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1332,7 +1347,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1340,7 +1355,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1348,7 +1363,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1356,7 +1371,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1364,6 +1379,46 @@
         <v>89</v>
       </c>
       <c r="B90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
         <v>10</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,9 +25,6 @@
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
-    <t>ABD Group 512 Melbourne Road Construction Site Spotswood</t>
-  </si>
-  <si>
     <t>Acquire BPO Southbank</t>
   </si>
   <si>
@@ -40,6 +37,12 @@
     <t>Al-Taqwa College Truganina</t>
   </si>
   <si>
+    <t>Amiga Montessori Craigieburn</t>
+  </si>
+  <si>
+    <t>Anglicare Home Princes Hwy Dandenong</t>
+  </si>
+  <si>
     <t>Best&amp;Less Fountain Gate Narre Warren</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
+    <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
+  </si>
+  <si>
     <t>Cannie Road Construction Site Cannie</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>Chemist Warehouse Fillo Drive Somerton</t>
   </si>
   <si>
+    <t>City of Hobsons Bay Community</t>
+  </si>
+  <si>
     <t>City of Moreland Community</t>
   </si>
   <si>
@@ -88,7 +97,7 @@
     <t>Coles Greenvale Shopping Centre</t>
   </si>
   <si>
-    <t>Coles Pakenham Place Shopping Centre</t>
+    <t>Coles Pakenham Place Shopping</t>
   </si>
   <si>
     <t>Coles Roxburgh Village Roxburgh Park</t>
@@ -109,18 +118,27 @@
     <t>DRC Laverton Automotive Repairs Laverton North</t>
   </si>
   <si>
-    <t>Direct Freight Express Cambellfield</t>
+    <t>Direct Freight Express Campbellfield</t>
+  </si>
+  <si>
+    <t>Don Watson Coldstore Derrimut</t>
   </si>
   <si>
     <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
   </si>
   <si>
+    <t>Fine Food Holdings Pty Ltd Dandenong South</t>
+  </si>
+  <si>
     <t>Fitzroy Community School Fitzroy North</t>
   </si>
   <si>
     <t>Fonterra Manufacturing Workplace Campbellfield</t>
   </si>
   <si>
+    <t>General foods Campbellfield</t>
+  </si>
+  <si>
     <t>Glenroy West Primary School</t>
   </si>
   <si>
@@ -160,9 +178,6 @@
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
-    <t>Islamic College of Melbourne Tarneit</t>
-  </si>
-  <si>
     <t>KFC Fawkner</t>
   </si>
   <si>
@@ -172,9 +187,6 @@
     <t>Kids House Early Learning Cheltenham</t>
   </si>
   <si>
-    <t>Learning Nest Early Learning Centre Meadow Heights</t>
-  </si>
-  <si>
     <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
@@ -199,27 +211,18 @@
     <t>Melbourne Youth Justice Centre Parkville</t>
   </si>
   <si>
-    <t>Melton Police Station Melton</t>
-  </si>
-  <si>
     <t>Mercy Hospital for Women Heidelberg</t>
   </si>
   <si>
     <t>Mernda YMCA Early Learning Centre Mernda</t>
   </si>
   <si>
-    <t>Montessori Beginnings Greenvale</t>
-  </si>
-  <si>
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
     <t>National Gallery of Victoria Melbourne</t>
   </si>
   <si>
-    <t>Newbury Child and Community Centre Craigieburn</t>
-  </si>
-  <si>
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
@@ -253,7 +256,10 @@
     <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
   </si>
   <si>
-    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
+    <t>Richmond Quarter 261-271 Bridge Road Construction Site</t>
+  </si>
+  <si>
+    <t>Sacca's Fruit World Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
     <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
@@ -262,6 +268,9 @@
     <t>Sharpline Stainless Steel Coburg North</t>
   </si>
   <si>
+    <t>St Margaret's Primary School Maribyrnong</t>
+  </si>
+  <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
@@ -271,6 +280,9 @@
     <t>The Homestead Child and Family Centre Roxburgh Park</t>
   </si>
   <si>
+    <t>The Huntly-Goornong Rail Works</t>
+  </si>
+  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
@@ -280,7 +292,7 @@
     <t>Total Window Concepts Hoppers Crossing</t>
   </si>
   <si>
-    <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
+    <t>Unilodge College Square Student Accommodation 570 Lygon Street</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
@@ -656,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -691,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -699,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -707,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -715,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -723,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -731,7 +743,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -739,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -747,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -763,60 +775,60 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -824,7 +836,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -832,95 +844,95 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -928,23 +940,23 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -952,31 +964,31 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>12</v>
@@ -984,191 +996,191 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -1176,7 +1188,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -1184,39 +1196,39 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>7</v>
@@ -1224,23 +1236,23 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>18</v>
@@ -1248,39 +1260,39 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -1288,7 +1300,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -1296,31 +1308,31 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -1328,63 +1340,63 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -1392,34 +1404,58 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,9 +25,6 @@
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
-    <t>Acquire BPO Southbank</t>
-  </si>
-  <si>
     <t>Adorn Cosmetics Clayton</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Chemist Warehouse Fillo Drive Somerton</t>
   </si>
   <si>
-    <t>City of Hobsons Bay Community</t>
-  </si>
-  <si>
     <t>City of Moreland Community</t>
   </si>
   <si>
@@ -97,12 +91,15 @@
     <t>Coles Greenvale Shopping Centre</t>
   </si>
   <si>
-    <t>Coles Pakenham Place Shopping</t>
+    <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
     <t>Coles Roxburgh Village Roxburgh Park</t>
   </si>
   <si>
+    <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
+  </si>
+  <si>
     <t>Community Kids Meadow Heights</t>
   </si>
   <si>
@@ -118,7 +115,7 @@
     <t>DRC Laverton Automotive Repairs Laverton North</t>
   </si>
   <si>
-    <t>Direct Freight Express Campbellfield</t>
+    <t>Direct Freight Express Cambellfield</t>
   </si>
   <si>
     <t>Don Watson Coldstore Derrimut</t>
@@ -136,7 +133,7 @@
     <t>Fonterra Manufacturing Workplace Campbellfield</t>
   </si>
   <si>
-    <t>General foods Campbellfield</t>
+    <t>General Foods Campbellfield</t>
   </si>
   <si>
     <t>Glenroy West Primary School</t>
@@ -157,6 +154,9 @@
     <t>Health Care Providers Association South Melbourne</t>
   </si>
   <si>
+    <t>Hello Fresh Warehouse Ravenhall</t>
+  </si>
+  <si>
     <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
   </si>
   <si>
@@ -172,9 +172,6 @@
     <t>Ilim Learning Sanctuary Glenroy</t>
   </si>
   <si>
-    <t>Impact Designer Homes Epping</t>
-  </si>
-  <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
     <t>Kids House Early Learning Cheltenham</t>
   </si>
   <si>
+    <t>Kippers Seafood Werribee</t>
+  </si>
+  <si>
     <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
@@ -196,7 +196,10 @@
     <t>Linfox Somerton National Distribution Centre Somerton</t>
   </si>
   <si>
-    <t>McDonalds Thomastown II</t>
+    <t>Mecca D.C Warehouse Melbourne Airport</t>
+  </si>
+  <si>
+    <t>Melbourne Assessment Prison West Melbourne</t>
   </si>
   <si>
     <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
@@ -208,15 +211,15 @@
     <t>Melbourne West Police Station Docklands</t>
   </si>
   <si>
-    <t>Melbourne Youth Justice Centre Parkville</t>
-  </si>
-  <si>
     <t>Mercy Hospital for Women Heidelberg</t>
   </si>
   <si>
     <t>Mernda YMCA Early Learning Centre Mernda</t>
   </si>
   <si>
+    <t>Mill Park Police Station Mill Park</t>
+  </si>
+  <si>
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
@@ -226,9 +229,6 @@
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
-    <t>North Geelong House Party</t>
-  </si>
-  <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
@@ -241,6 +241,9 @@
     <t>Oporto Coolaroo</t>
   </si>
   <si>
+    <t>Oscar Romero Catholic Primary School Craigieburn</t>
+  </si>
+  <si>
     <t>Our Lady Help of Christian's Primary School Brunswick East</t>
   </si>
   <si>
@@ -256,7 +259,7 @@
     <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
   </si>
   <si>
-    <t>Richmond Quarter 261-271 Bridge Road Construction Site</t>
+    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
   </si>
   <si>
     <t>Sacca's Fruit World Broadmeadows Central Shopping Centre</t>
@@ -268,7 +271,7 @@
     <t>Sharpline Stainless Steel Coburg North</t>
   </si>
   <si>
-    <t>St Margaret's Primary School Maribyrnong</t>
+    <t>St Margaret's Primary School OSHC Maribyrnong</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
@@ -292,7 +295,7 @@
     <t>Total Window Concepts Hoppers Crossing</t>
   </si>
   <si>
-    <t>Unilodge College Square Student Accommodation 570 Lygon Street</t>
+    <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
@@ -668,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -695,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -703,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -711,7 +714,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -719,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -727,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -735,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -743,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -751,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -759,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -767,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -775,7 +778,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -783,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -791,7 +794,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -799,7 +802,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -807,7 +810,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -815,7 +818,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -823,7 +826,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -839,7 +842,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -847,7 +850,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -855,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -863,7 +866,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -871,7 +874,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -879,7 +882,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -887,7 +890,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -895,7 +898,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -903,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -911,7 +914,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -919,20 +922,20 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -940,7 +943,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>13</v>
@@ -948,7 +951,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -956,7 +959,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -964,31 +967,31 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>12</v>
@@ -996,7 +999,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -1004,23 +1007,23 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>13</v>
@@ -1036,63 +1039,63 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>22</v>
@@ -1100,15 +1103,15 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -1116,23 +1119,23 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -1140,63 +1143,63 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -1204,151 +1207,151 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -1356,106 +1359,130 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B98">
-        <v>9</v>
+      <c r="B100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,6 +25,9 @@
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
+    <t>95 Napier Street Apartment Complex Fitzroy</t>
+  </si>
+  <si>
     <t>Adorn Cosmetics Clayton</t>
   </si>
   <si>
@@ -37,7 +40,10 @@
     <t>Amiga Montessori Craigieburn</t>
   </si>
   <si>
-    <t>Anglicare Home Princes Hwy Dandenong</t>
+    <t>Australia Post Distribution Centre Sunshine West</t>
+  </si>
+  <si>
+    <t>Baxter Foods Australia Campbellfield</t>
   </si>
   <si>
     <t>Best&amp;Less Fountain Gate Narre Warren</t>
@@ -112,7 +118,7 @@
     <t>Crusader Caravans Epping</t>
   </si>
   <si>
-    <t>DRC Laverton Automotive Repairs Laverton North</t>
+    <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
   </si>
   <si>
     <t>Direct Freight Express Cambellfield</t>
@@ -142,6 +148,9 @@
     <t>Goodstart Early Learning Altona</t>
   </si>
   <si>
+    <t>Green Leaves Early Learning Cairnlea</t>
+  </si>
+  <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
@@ -187,6 +196,12 @@
     <t>Kippers Seafood Werribee</t>
   </si>
   <si>
+    <t>Kool Kidz Childcare Narre Warren</t>
+  </si>
+  <si>
+    <t>Learning Nest Early Learning Centre Meadow Heights</t>
+  </si>
+  <si>
     <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
@@ -196,6 +211,9 @@
     <t>Linfox Somerton National Distribution Centre Somerton</t>
   </si>
   <si>
+    <t>McDonald's Craigieburn North</t>
+  </si>
+  <si>
     <t>Mecca D.C Warehouse Melbourne Airport</t>
   </si>
   <si>
@@ -226,6 +244,12 @@
     <t>National Gallery of Victoria Melbourne</t>
   </si>
   <si>
+    <t>Nido Early School Ascot Vale</t>
+  </si>
+  <si>
+    <t>Nido Early School Glenroy</t>
+  </si>
+  <si>
     <t>Nido Early School Moonee Ponds</t>
   </si>
   <si>
@@ -268,15 +292,15 @@
     <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
   </si>
   <si>
-    <t>Sharpline Stainless Steel Coburg North</t>
-  </si>
-  <si>
     <t>St Margaret's Primary School OSHC Maribyrnong</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
+    <t>Sultan Halal Meats &amp; Poultry Campbellfield</t>
+  </si>
+  <si>
     <t>Tek Foods Somerton</t>
   </si>
   <si>
@@ -289,6 +313,9 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
+    <t>The Royal Melbourne Hospital AMU Ward Parkville</t>
+  </si>
+  <si>
     <t>ThorwestenCabinets Pakenham</t>
   </si>
   <si>
@@ -296,6 +323,9 @@
   </si>
   <si>
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
+  </si>
+  <si>
+    <t>Wallaby Childcare Wollert</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
@@ -671,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -714,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -722,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -730,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -746,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -754,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -762,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -770,7 +800,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -778,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -786,12 +816,12 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -799,7 +829,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -807,15 +837,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -823,106 +853,106 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -930,7 +960,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -938,7 +968,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -946,7 +976,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -962,7 +992,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -970,7 +1000,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -978,7 +1008,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -986,7 +1016,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -994,7 +1024,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1002,7 +1032,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1010,7 +1040,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1018,7 +1048,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1026,7 +1056,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1034,7 +1064,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1042,7 +1072,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1058,7 +1088,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1066,7 +1096,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1074,7 +1104,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1082,7 +1112,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1090,7 +1120,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1098,7 +1128,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1106,7 +1136,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1114,7 +1144,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1122,7 +1152,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1138,7 +1168,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1146,7 +1176,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1154,7 +1184,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1162,7 +1192,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1178,7 +1208,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1186,7 +1216,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1194,7 +1224,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1210,7 +1240,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1226,7 +1256,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1234,7 +1264,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1242,7 +1272,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1250,7 +1280,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1258,7 +1288,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1266,7 +1296,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1274,7 +1304,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1282,7 +1312,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1290,7 +1320,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1298,7 +1328,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1306,7 +1336,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1314,7 +1344,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1322,7 +1352,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1330,7 +1360,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1338,7 +1368,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1354,7 +1384,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1362,7 +1392,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1370,7 +1400,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1378,7 +1408,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1386,7 +1416,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1394,7 +1424,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1402,7 +1432,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1410,7 +1440,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1418,7 +1448,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1426,62 +1456,134 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
         <v>8</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Cluster name</t>
   </si>
@@ -28,9 +28,6 @@
     <t>95 Napier Street Apartment Complex Fitzroy</t>
   </si>
   <si>
-    <t>Adorn Cosmetics Clayton</t>
-  </si>
-  <si>
     <t>Al Haj Halal Meats Glenroy</t>
   </si>
   <si>
@@ -46,15 +43,15 @@
     <t>Baxter Foods Australia Campbellfield</t>
   </si>
   <si>
-    <t>Best&amp;Less Fountain Gate Narre Warren</t>
-  </si>
-  <si>
     <t>Budget Car and Truck Rentals Campbellfield</t>
   </si>
   <si>
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
+    <t>Cafe Roco Dandenong</t>
+  </si>
+  <si>
     <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
   </si>
   <si>
@@ -73,18 +70,9 @@
     <t>Chemist Warehouse Fillo Drive Somerton</t>
   </si>
   <si>
-    <t>City of Moreland Community</t>
-  </si>
-  <si>
     <t>City of Wyndham Community</t>
   </si>
   <si>
-    <t>Classy Cabinets and Kitchens Craigieburn</t>
-  </si>
-  <si>
-    <t>Coles Aurora Village Epping</t>
-  </si>
-  <si>
     <t>Coles Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
     <t>Coles Coburg North Village</t>
   </si>
   <si>
-    <t>Coles Greenvale Shopping Centre</t>
-  </si>
-  <si>
     <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
@@ -109,6 +94,9 @@
     <t>Community Kids Meadow Heights</t>
   </si>
   <si>
+    <t>Construction Site 1 Warde Street Footscray</t>
+  </si>
+  <si>
     <t>Construction Site Olea Apartment Caulfield North</t>
   </si>
   <si>
@@ -124,12 +112,18 @@
     <t>Direct Freight Express Cambellfield</t>
   </si>
   <si>
+    <t>Disability Residence Life without Barriers Ashwood</t>
+  </si>
+  <si>
     <t>Don Watson Coldstore Derrimut</t>
   </si>
   <si>
     <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
   </si>
   <si>
+    <t>FedEx Station Melbourne Airport</t>
+  </si>
+  <si>
     <t>Fine Food Holdings Pty Ltd Dandenong South</t>
   </si>
   <si>
@@ -142,7 +136,7 @@
     <t>General Foods Campbellfield</t>
   </si>
   <si>
-    <t>Glenroy West Primary School</t>
+    <t>Gladstone Parade Early Learning &amp; Kinder Glenroy</t>
   </si>
   <si>
     <t>Goodstart Early Learning Altona</t>
@@ -154,18 +148,15 @@
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
-    <t>Gumboots Early Learning Centre South Morang</t>
-  </si>
-  <si>
     <t>Hamilton Marino 236 Jasper Road McKinnon</t>
   </si>
   <si>
-    <t>Health Care Providers Association South Melbourne</t>
-  </si>
-  <si>
     <t>Hello Fresh Warehouse Ravenhall</t>
   </si>
   <si>
+    <t>Hickory Construction Site Chadstone Car Park Malvern East</t>
+  </si>
+  <si>
     <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
   </si>
   <si>
@@ -175,15 +166,15 @@
     <t>Ibis Kingsgate Hotel Melbourne</t>
   </si>
   <si>
-    <t>Ilim College Glenroy Campus Hadfield</t>
-  </si>
-  <si>
     <t>Ilim Learning Sanctuary Glenroy</t>
   </si>
   <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
+    <t>Inghams Enterprises Thomastown</t>
+  </si>
+  <si>
     <t>KFC Fawkner</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
-    <t>Learning Nest Early Learning Centre Meadow Heights</t>
-  </si>
-  <si>
     <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
   </si>
   <si>
@@ -223,18 +211,9 @@
     <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
   </si>
   <si>
-    <t>Melbourne Truck Repairs Campbellfield</t>
-  </si>
-  <si>
     <t>Melbourne West Police Station Docklands</t>
   </si>
   <si>
-    <t>Mercy Hospital for Women Heidelberg</t>
-  </si>
-  <si>
-    <t>Mernda YMCA Early Learning Centre Mernda</t>
-  </si>
-  <si>
     <t>Mill Park Police Station Mill Park</t>
   </si>
   <si>
@@ -271,7 +250,7 @@
     <t>Our Lady Help of Christian's Primary School Brunswick East</t>
   </si>
   <si>
-    <t>Paisley Park Early Learning Centre Bundoora</t>
+    <t>Pacific Meat Thomastown</t>
   </si>
   <si>
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
@@ -283,6 +262,9 @@
     <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
   </si>
   <si>
+    <t>Ravenhall Correctional Centre Ravenhall</t>
+  </si>
+  <si>
     <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
   </si>
   <si>
@@ -304,9 +286,6 @@
     <t>Tek Foods Somerton</t>
   </si>
   <si>
-    <t>The Homestead Child and Family Centre Roxburgh Park</t>
-  </si>
-  <si>
     <t>The Huntly-Goornong Rail Works</t>
   </si>
   <si>
@@ -338,9 +317,6 @@
   </si>
   <si>
     <t>Woodlands Long Day Care and Kindergarten Roxburgh Park</t>
-  </si>
-  <si>
-    <t>Woolworths Greenvale Lakes Roxburgh Park</t>
   </si>
   <si>
     <t>Yara Childcare Centre Truganina</t>
@@ -701,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -744,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -752,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -760,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -784,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -792,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -800,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -808,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -816,36 +792,36 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -853,103 +829,103 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>11</v>
@@ -957,103 +933,103 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>11</v>
@@ -1061,7 +1037,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -1069,103 +1045,103 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>7</v>
@@ -1173,7 +1149,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>9</v>
@@ -1181,31 +1157,31 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>7</v>
@@ -1213,7 +1189,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -1221,151 +1197,151 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>11</v>
@@ -1373,7 +1349,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -1381,31 +1357,31 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -1413,178 +1389,106 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Active cases</t>
   </si>
   <si>
+    <t>126 Racecourse Road Public Housing Tower Flemington</t>
+  </si>
+  <si>
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
@@ -37,15 +40,24 @@
     <t>Amiga Montessori Craigieburn</t>
   </si>
   <si>
+    <t>Apartment Complex 120 Racecourse Road North Melbourne</t>
+  </si>
+  <si>
     <t>Australia Post Distribution Centre Sunshine West</t>
   </si>
   <si>
+    <t>Australian Lamb Colac East</t>
+  </si>
+  <si>
     <t>Baxter Foods Australia Campbellfield</t>
   </si>
   <si>
     <t>Budget Car and Truck Rentals Campbellfield</t>
   </si>
   <si>
+    <t>CFMEU Melbourne Office</t>
+  </si>
+  <si>
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
@@ -55,9 +67,6 @@
     <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
   </si>
   <si>
-    <t>Cannie Road Construction Site Cannie</t>
-  </si>
-  <si>
     <t>Caroline Springs Police Station</t>
   </si>
   <si>
@@ -73,9 +82,6 @@
     <t>City of Wyndham Community</t>
   </si>
   <si>
-    <t>Coles Broadmeadows Central Shopping Centre</t>
-  </si>
-  <si>
     <t>Coles Campbellfield Plaza Campbellfield</t>
   </si>
   <si>
@@ -91,9 +97,6 @@
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
-    <t>Community Kids Meadow Heights</t>
-  </si>
-  <si>
     <t>Construction Site 1 Warde Street Footscray</t>
   </si>
   <si>
@@ -106,10 +109,13 @@
     <t>Crusader Caravans Epping</t>
   </si>
   <si>
+    <t>Dandenong Police Station Dandenong</t>
+  </si>
+  <si>
     <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
   </si>
   <si>
-    <t>Direct Freight Express Cambellfield</t>
+    <t>Direct Freight Express Campbellfield</t>
   </si>
   <si>
     <t>Disability Residence Life without Barriers Ashwood</t>
@@ -121,6 +127,9 @@
     <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
   </si>
   <si>
+    <t>Ermha365 Ltd Doveton</t>
+  </si>
+  <si>
     <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
@@ -148,6 +157,9 @@
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
+    <t>Greenvale Primary School</t>
+  </si>
+  <si>
     <t>Hamilton Marino 236 Jasper Road McKinnon</t>
   </si>
   <si>
@@ -175,15 +187,9 @@
     <t>Inghams Enterprises Thomastown</t>
   </si>
   <si>
-    <t>KFC Fawkner</t>
-  </si>
-  <si>
     <t>Kasr Sweets Coolaroo</t>
   </si>
   <si>
-    <t>Kids House Early Learning Cheltenham</t>
-  </si>
-  <si>
     <t>Kippers Seafood Werribee</t>
   </si>
   <si>
@@ -229,9 +235,6 @@
     <t>Nido Early School Glenroy</t>
   </si>
   <si>
-    <t>Nido Early School Moonee Ponds</t>
-  </si>
-  <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
   </si>
   <si>
@@ -256,9 +259,6 @@
     <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
   </si>
   <si>
-    <t>Private Residence Northern Community Services Fawkner</t>
-  </si>
-  <si>
     <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
   </si>
   <si>
@@ -271,7 +271,7 @@
     <t>Sacca's Fruit World Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
-    <t>Salta Drive Construction Site Rangedale Drainage Altona North</t>
+    <t>Sharpline Stainless Steel Coburg North</t>
   </si>
   <si>
     <t>St Margaret's Primary School OSHC Maribyrnong</t>
@@ -280,9 +280,6 @@
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>Sultan Halal Meats &amp; Poultry Campbellfield</t>
-  </si>
-  <si>
     <t>Tek Foods Somerton</t>
   </si>
   <si>
@@ -295,10 +292,13 @@
     <t>The Royal Melbourne Hospital AMU Ward Parkville</t>
   </si>
   <si>
+    <t>The Royal Talbot Rehabilitation Centre Kew</t>
+  </si>
+  <si>
     <t>ThorwestenCabinets Pakenham</t>
   </si>
   <si>
-    <t>Total Window Concepts Hoppers Crossing</t>
+    <t>Truganina Early Learning Centre Truganina</t>
   </si>
   <si>
     <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
@@ -310,13 +310,10 @@
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Western Health Footscray Hospital Emergency Department</t>
+    <t>Western Health Footscray Hospital Ward 3B Footscray</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Woodlands Long Day Care and Kindergarten Roxburgh Park</t>
   </si>
   <si>
     <t>Yara Childcare Centre Truganina</t>
@@ -677,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -736,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -760,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -776,7 +773,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -792,7 +789,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +797,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +805,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +813,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +837,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +845,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +853,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +861,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +869,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +885,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +893,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +901,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +909,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +917,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +925,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +933,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +941,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +949,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +957,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +965,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -984,7 +981,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +989,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +997,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1005,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1013,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1021,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1048,7 +1045,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1053,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1080,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1085,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1093,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1120,7 +1117,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1136,7 +1133,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1141,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1149,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1157,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1165,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1173,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1181,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1200,7 +1197,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1205,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1213,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1221,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1232,7 +1229,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1240,7 +1237,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1256,7 +1253,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1264,7 +1261,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1272,7 +1269,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1280,7 +1277,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1288,7 +1285,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1296,7 +1293,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1304,7 +1301,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1312,7 +1309,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1336,7 +1333,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1344,7 +1341,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1360,7 +1357,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1368,7 +1365,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1376,7 +1373,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1384,7 +1381,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1392,7 +1389,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1400,7 +1397,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1408,7 +1405,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1416,7 +1413,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1432,7 +1429,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1440,7 +1437,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1448,7 +1445,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1456,7 +1453,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1464,7 +1461,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1480,14 +1477,6 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101">
         <v>7</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>Cluster name</t>
   </si>
@@ -28,18 +28,12 @@
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
-    <t>95 Napier Street Apartment Complex Fitzroy</t>
-  </si>
-  <si>
     <t>Al Haj Halal Meats Glenroy</t>
   </si>
   <si>
     <t>Al-Taqwa College Truganina</t>
   </si>
   <si>
-    <t>Amiga Montessori Craigieburn</t>
-  </si>
-  <si>
     <t>Apartment Complex 120 Racecourse Road North Melbourne</t>
   </si>
   <si>
@@ -52,9 +46,6 @@
     <t>Baxter Foods Australia Campbellfield</t>
   </si>
   <si>
-    <t>Budget Car and Truck Rentals Campbellfield</t>
-  </si>
-  <si>
     <t>CFMEU Melbourne Office</t>
   </si>
   <si>
@@ -67,12 +58,12 @@
     <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
   </si>
   <si>
+    <t>Cardinia Lakes Early Learning Centre Pakenham</t>
+  </si>
+  <si>
     <t>Caroline Springs Police Station</t>
   </si>
   <si>
-    <t>Cedars Medical Clinic Coburg</t>
-  </si>
-  <si>
     <t>Chemist Warehouse Campbellfield DC</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
-    <t>Coles Roxburgh Village Roxburgh Park</t>
-  </si>
-  <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
@@ -121,7 +109,7 @@
     <t>Disability Residence Life without Barriers Ashwood</t>
   </si>
   <si>
-    <t>Don Watson Coldstore Derrimut</t>
+    <t>Don Watson Coldstore Derrimutg</t>
   </si>
   <si>
     <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
@@ -130,15 +118,9 @@
     <t>Ermha365 Ltd Doveton</t>
   </si>
   <si>
-    <t>FedEx Station Melbourne Airport</t>
-  </si>
-  <si>
     <t>Fine Food Holdings Pty Ltd Dandenong South</t>
   </si>
   <si>
-    <t>Fitzroy Community School Fitzroy North</t>
-  </si>
-  <si>
     <t>Fonterra Manufacturing Workplace Campbellfield</t>
   </si>
   <si>
@@ -163,22 +145,13 @@
     <t>Hamilton Marino 236 Jasper Road McKinnon</t>
   </si>
   <si>
-    <t>Hello Fresh Warehouse Ravenhall</t>
-  </si>
-  <si>
-    <t>Hickory Construction Site Chadstone Car Park Malvern East</t>
-  </si>
-  <si>
-    <t>IGA Meadow Heights Shopping Centre Meadow Heights</t>
-  </si>
-  <si>
     <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
   </si>
   <si>
     <t>Ibis Kingsgate Hotel Melbourne</t>
   </si>
   <si>
-    <t>Ilim Learning Sanctuary Glenroy</t>
+    <t>Ilim College Kiewa Campus Boys Secondary Dallas</t>
   </si>
   <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
@@ -187,9 +160,6 @@
     <t>Inghams Enterprises Thomastown</t>
   </si>
   <si>
-    <t>Kasr Sweets Coolaroo</t>
-  </si>
-  <si>
     <t>Kippers Seafood Werribee</t>
   </si>
   <si>
@@ -205,9 +175,6 @@
     <t>Linfox Somerton National Distribution Centre Somerton</t>
   </si>
   <si>
-    <t>McDonald's Craigieburn North</t>
-  </si>
-  <si>
     <t>Mecca D.C Warehouse Melbourne Airport</t>
   </si>
   <si>
@@ -256,10 +223,10 @@
     <t>Pacific Meat Thomastown</t>
   </si>
   <si>
-    <t>Panorama Construction Site Whitehorse Rd Box Hill</t>
-  </si>
-  <si>
-    <t>Ramsay Health Care Warringal Private Hospital Heidelberg</t>
+    <t>Private Residence Daycare Allumba Way Wollert</t>
+  </si>
+  <si>
+    <t>Ramsay Health Care Warrigal Private Hospital</t>
   </si>
   <si>
     <t>Ravenhall Correctional Centre Ravenhall</t>
@@ -289,7 +256,7 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>The Royal Melbourne Hospital AMU Ward Parkville</t>
+    <t>The Royal Melbourne Hospital Ward 6SE Parkville</t>
   </si>
   <si>
     <t>The Royal Talbot Rehabilitation Centre Kew</t>
@@ -310,13 +277,13 @@
     <t>Werribee Mercy Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Western Health Footscray Hospital Ward 3B Footscray</t>
+    <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
   <si>
-    <t>Yara Childcare Centre Truganina</t>
+    <t>Yarra Childcare Centre Truganina</t>
   </si>
 </sst>
 </file>
@@ -674,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -709,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -717,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -733,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -765,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -773,7 +740,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -781,7 +748,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -789,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -797,7 +764,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -805,7 +772,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -813,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -821,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -829,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -837,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -845,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -853,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -861,7 +828,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -869,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -877,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -885,7 +852,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -893,7 +860,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -901,7 +868,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -909,7 +876,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -917,7 +884,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -941,7 +908,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -949,7 +916,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -957,7 +924,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -965,28 +932,28 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -994,7 +961,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -1002,87 +969,87 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -1090,47 +1057,47 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -1138,71 +1105,71 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -1210,7 +1177,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -1218,87 +1185,87 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>10</v>
@@ -1306,47 +1273,47 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -1354,7 +1321,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -1362,122 +1329,42 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Cluster name</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Australian Lamb Colac East</t>
   </si>
   <si>
+    <t>Baker Bleu Caulfield North</t>
+  </si>
+  <si>
     <t>Baxter Foods Australia Campbellfield</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>Cardinia Lakes Early Learning Centre Pakenham</t>
   </si>
   <si>
+    <t>Carlton Finishing Pty. Ltd. Campbellfield</t>
+  </si>
+  <si>
     <t>Caroline Springs Police Station</t>
   </si>
   <si>
@@ -115,12 +121,18 @@
     <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
   </si>
   <si>
-    <t>Ermha365 Ltd Doveton</t>
+    <t>Ermha365 Residential Disability Care Services Paperbark St Doveton</t>
+  </si>
+  <si>
+    <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
     <t>Fine Food Holdings Pty Ltd Dandenong South</t>
   </si>
   <si>
+    <t>Fitzroy St Precinct St Kilda</t>
+  </si>
+  <si>
     <t>Fonterra Manufacturing Workplace Campbellfield</t>
   </si>
   <si>
@@ -133,7 +145,7 @@
     <t>Goodstart Early Learning Altona</t>
   </si>
   <si>
-    <t>Green Leaves Early Learning Cairnlea</t>
+    <t>Green Leaves Early Leaning Cairnlea</t>
   </si>
   <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
@@ -142,18 +154,18 @@
     <t>Greenvale Primary School</t>
   </si>
   <si>
+    <t>HEI Schools Emerald Early Learning Centre Emerald</t>
+  </si>
+  <si>
     <t>Hamilton Marino 236 Jasper Road McKinnon</t>
   </si>
   <si>
+    <t>Hello Fresh Warehouse Ravenhall</t>
+  </si>
+  <si>
     <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
   </si>
   <si>
-    <t>Ibis Kingsgate Hotel Melbourne</t>
-  </si>
-  <si>
-    <t>Ilim College Kiewa Campus Boys Secondary Dallas</t>
-  </si>
-  <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
@@ -166,16 +178,13 @@
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
-    <t>Level Crossing Removal Project Lilydale Construction Site John Street</t>
-  </si>
-  <si>
     <t>Lineage Logistics Laverton North</t>
   </si>
   <si>
     <t>Linfox Somerton National Distribution Centre Somerton</t>
   </si>
   <si>
-    <t>Mecca D.C Warehouse Melbourne Airport</t>
+    <t>Mecca Distribution Centre Warehouse Melbourne Airport</t>
   </si>
   <si>
     <t>Melbourne Assessment Prison West Melbourne</t>
@@ -226,9 +235,6 @@
     <t>Private Residence Daycare Allumba Way Wollert</t>
   </si>
   <si>
-    <t>Ramsay Health Care Warrigal Private Hospital</t>
-  </si>
-  <si>
     <t>Ravenhall Correctional Centre Ravenhall</t>
   </si>
   <si>
@@ -256,6 +262,12 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
+    <t>The Royal Melbourne Hospital Parkville</t>
+  </si>
+  <si>
+    <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
+  </si>
+  <si>
     <t>The Royal Melbourne Hospital Ward 6SE Parkville</t>
   </si>
   <si>
@@ -268,7 +280,7 @@
     <t>Truganina Early Learning Centre Truganina</t>
   </si>
   <si>
-    <t>Unilodge College Square Student Accommodation 570 Lygon Street Carlton</t>
+    <t>Visy Recycling Springvale</t>
   </si>
   <si>
     <t>Wallaby Childcare Wollert</t>
@@ -281,6 +293,9 @@
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital GEM Ward St Albans</t>
   </si>
   <si>
     <t>Yarra Childcare Centre Truganina</t>
@@ -641,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -668,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -716,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -732,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -740,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -748,7 +763,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -756,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -764,7 +779,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -772,7 +787,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -780,7 +795,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -788,7 +803,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -796,7 +811,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -804,7 +819,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -812,7 +827,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -820,7 +835,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -828,7 +843,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -836,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -844,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -852,7 +867,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -860,7 +875,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -868,7 +883,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -876,7 +891,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -884,7 +899,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -900,7 +915,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -908,7 +923,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -916,7 +931,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -932,20 +947,20 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>7</v>
@@ -953,7 +968,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -961,55 +976,55 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -1017,39 +1032,39 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -1057,7 +1072,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -1065,63 +1080,63 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -1129,71 +1144,71 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -1201,15 +1216,15 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -1217,7 +1232,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -1225,23 +1240,23 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -1249,121 +1264,153 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
         <v>5</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Cluster name</t>
   </si>
@@ -25,6 +25,12 @@
     <t>126 Racecourse Road Public Housing Tower Flemington</t>
   </si>
   <si>
+    <t>139 Highett St Apartment Complex Richmond</t>
+  </si>
+  <si>
+    <t>3175 The Bays Aged Care Facility Hastings</t>
+  </si>
+  <si>
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
@@ -34,7 +40,7 @@
     <t>Al-Taqwa College Truganina</t>
   </si>
   <si>
-    <t>Apartment Complex 120 Racecourse Road North Melbourne</t>
+    <t>Allbright Manor Aged Care Croydon North Tier 1A</t>
   </si>
   <si>
     <t>Australia Post Distribution Centre Sunshine West</t>
@@ -64,12 +70,12 @@
     <t>Cardinia Lakes Early Learning Centre Pakenham</t>
   </si>
   <si>
-    <t>Carlton Finishing Pty. Ltd. Campbellfield</t>
-  </si>
-  <si>
     <t>Caroline Springs Police Station</t>
   </si>
   <si>
+    <t>Carton Finishing Pty. Ltd. Campbellfield</t>
+  </si>
+  <si>
     <t>Chemist Warehouse Campbellfield DC</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
+    <t>Coles Roxburgh Village Roxburgh Park</t>
+  </si>
+  <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
@@ -115,7 +124,7 @@
     <t>Disability Residence Life without Barriers Ashwood</t>
   </si>
   <si>
-    <t>Don Watson Coldstore Derrimutg</t>
+    <t>Don Watson Coldstore Derrimut</t>
   </si>
   <si>
     <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
@@ -130,9 +139,6 @@
     <t>Fine Food Holdings Pty Ltd Dandenong South</t>
   </si>
   <si>
-    <t>Fitzroy St Precinct St Kilda</t>
-  </si>
-  <si>
     <t>Fonterra Manufacturing Workplace Campbellfield</t>
   </si>
   <si>
@@ -145,7 +151,7 @@
     <t>Goodstart Early Learning Altona</t>
   </si>
   <si>
-    <t>Green Leaves Early Leaning Cairnlea</t>
+    <t>Green Leaves Early Learning Cairnlea</t>
   </si>
   <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
@@ -166,6 +172,9 @@
     <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
   </si>
   <si>
+    <t>Ibis Kingsgate Hotel Melbourne</t>
+  </si>
+  <si>
     <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
   </si>
   <si>
@@ -178,7 +187,7 @@
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
-    <t>Lineage Logistics Laverton North</t>
+    <t>Lantmannen Unibake Australia Mordialloc</t>
   </si>
   <si>
     <t>Linfox Somerton National Distribution Centre Somerton</t>
@@ -298,7 +307,7 @@
     <t>Western Health Sunshine Hospital GEM Ward St Albans</t>
   </si>
   <si>
-    <t>Yarra Childcare Centre Truganina</t>
+    <t>Yara Childcare Centre Truganina</t>
   </si>
 </sst>
 </file>
@@ -656,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -691,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -699,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -707,7 +716,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -715,7 +724,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -731,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -739,7 +748,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -747,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -755,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -763,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -771,7 +780,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -779,7 +788,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -787,7 +796,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -795,7 +804,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -803,7 +812,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -811,7 +820,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -819,7 +828,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -827,7 +836,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -835,7 +844,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -843,7 +852,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -851,7 +860,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -859,7 +868,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -867,7 +876,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -875,7 +884,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -883,7 +892,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -891,7 +900,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -899,7 +908,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -907,7 +916,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -915,7 +924,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -923,7 +932,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -931,7 +940,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -939,7 +948,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -947,7 +956,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -955,7 +964,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -963,7 +972,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -971,7 +980,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -979,7 +988,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -987,7 +996,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -995,7 +1004,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1003,7 +1012,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1011,7 +1020,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1027,7 +1036,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1035,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1043,7 +1052,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1059,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1067,7 +1076,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1083,7 +1092,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1099,7 +1108,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1107,7 +1116,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1115,7 +1124,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1123,7 +1132,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1131,7 +1140,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1139,7 +1148,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1147,7 +1156,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1155,7 +1164,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1163,7 +1172,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1171,7 +1180,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1179,7 +1188,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1187,7 +1196,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1195,7 +1204,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1203,7 +1212,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1211,7 +1220,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1219,7 +1228,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1227,7 +1236,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1235,7 +1244,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1243,7 +1252,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1251,7 +1260,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1259,7 +1268,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1267,7 +1276,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1275,7 +1284,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1283,7 +1292,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1291,7 +1300,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1299,7 +1308,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1307,7 +1316,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1315,7 +1324,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1331,7 +1340,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1339,7 +1348,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1347,7 +1356,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1355,7 +1364,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1363,7 +1372,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1371,7 +1380,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1379,7 +1388,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1387,7 +1396,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1395,7 +1404,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1403,7 +1412,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1411,6 +1420,30 @@
         <v>94</v>
       </c>
       <c r="B94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
         <v>5</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Cluster name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
   </si>
   <si>
-    <t>Al Haj Halal Meats Glenroy</t>
-  </si>
-  <si>
     <t>Al-Taqwa College Truganina</t>
   </si>
   <si>
@@ -76,18 +73,9 @@
     <t>Carton Finishing Pty. Ltd. Campbellfield</t>
   </si>
   <si>
-    <t>Chemist Warehouse Campbellfield DC</t>
-  </si>
-  <si>
     <t>Chemist Warehouse Fillo Drive Somerton</t>
   </si>
   <si>
-    <t>City of Wyndham Community</t>
-  </si>
-  <si>
-    <t>Coles Campbellfield Plaza Campbellfield</t>
-  </si>
-  <si>
     <t>Coles Coburg North Village</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
-    <t>Construction Site 1 Warde Street Footscray</t>
-  </si>
-  <si>
     <t>Construction Site Olea Apartment Caulfield North</t>
   </si>
   <si>
@@ -118,18 +103,9 @@
     <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
   </si>
   <si>
-    <t>Direct Freight Express Campbellfield</t>
-  </si>
-  <si>
     <t>Disability Residence Life without Barriers Ashwood</t>
   </si>
   <si>
-    <t>Don Watson Coldstore Derrimut</t>
-  </si>
-  <si>
-    <t>Epworth Healthcare Epworth Richmond Emergency Department</t>
-  </si>
-  <si>
     <t>Ermha365 Residential Disability Care Services Paperbark St Doveton</t>
   </si>
   <si>
@@ -151,9 +127,6 @@
     <t>Goodstart Early Learning Altona</t>
   </si>
   <si>
-    <t>Green Leaves Early Learning Cairnlea</t>
-  </si>
-  <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
@@ -181,9 +154,6 @@
     <t>Inghams Enterprises Thomastown</t>
   </si>
   <si>
-    <t>Kippers Seafood Werribee</t>
-  </si>
-  <si>
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
@@ -211,9 +181,6 @@
     <t>MyCentre Childcare Broadmeadows</t>
   </si>
   <si>
-    <t>National Gallery of Victoria Melbourne</t>
-  </si>
-  <si>
     <t>Nido Early School Ascot Vale</t>
   </si>
   <si>
@@ -232,9 +199,6 @@
     <t>Oporto Coolaroo</t>
   </si>
   <si>
-    <t>Oscar Romero Catholic Primary School Craigieburn</t>
-  </si>
-  <si>
     <t>Our Lady Help of Christian's Primary School Brunswick East</t>
   </si>
   <si>
@@ -253,21 +217,12 @@
     <t>Sacca's Fruit World Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
-    <t>Sharpline Stainless Steel Coburg North</t>
-  </si>
-  <si>
     <t>St Margaret's Primary School OSHC Maribyrnong</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>Tek Foods Somerton</t>
-  </si>
-  <si>
-    <t>The Huntly-Goornong Rail Works</t>
-  </si>
-  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
@@ -305,9 +260,6 @@
   </si>
   <si>
     <t>Western Health Sunshine Hospital GEM Ward St Albans</t>
-  </si>
-  <si>
-    <t>Yara Childcare Centre Truganina</t>
   </si>
 </sst>
 </file>
@@ -665,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -684,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -700,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -708,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -716,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -724,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -740,7 +692,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -748,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -756,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -772,7 +724,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -780,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -788,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -796,7 +748,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -812,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -820,7 +772,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -828,7 +780,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -836,7 +788,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -844,7 +796,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -852,7 +804,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -860,7 +812,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -868,7 +820,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -876,7 +828,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -884,7 +836,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -892,7 +844,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -900,7 +852,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -908,7 +860,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -916,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -924,7 +876,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -932,7 +884,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -940,7 +892,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -948,7 +900,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -956,7 +908,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -964,7 +916,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -972,7 +924,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -980,7 +932,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -988,7 +940,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -996,7 +948,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1004,7 +956,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1012,7 +964,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1020,7 +972,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1028,7 +980,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1036,7 +988,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1044,7 +996,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1052,7 +1004,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1060,7 +1012,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1068,7 +1020,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1076,7 +1028,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1084,7 +1036,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1092,7 +1044,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1100,7 +1052,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1108,7 +1060,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1116,7 +1068,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1124,7 +1076,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1132,7 +1084,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1140,7 +1092,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1148,7 +1100,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1164,7 +1116,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1180,7 +1132,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1196,7 +1148,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1204,7 +1156,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1212,7 +1164,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1220,7 +1172,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1228,7 +1180,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1236,7 +1188,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1244,7 +1196,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1252,7 +1204,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1260,7 +1212,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1276,7 +1228,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1284,7 +1236,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1292,7 +1244,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1300,7 +1252,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1308,7 +1260,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1316,135 +1268,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83">
         <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Cluster name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Baxter Foods Australia Campbellfield</t>
   </si>
   <si>
-    <t>CFMEU Melbourne Office</t>
-  </si>
-  <si>
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Cardinia Lakes Early Learning Centre Pakenham</t>
   </si>
   <si>
-    <t>Caroline Springs Police Station</t>
-  </si>
-  <si>
     <t>Carton Finishing Pty. Ltd. Campbellfield</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>Coles Pakenham Place Shopping Centre</t>
   </si>
   <si>
-    <t>Coles Roxburgh Village Roxburgh Park</t>
-  </si>
-  <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
@@ -103,10 +94,10 @@
     <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
   </si>
   <si>
-    <t>Disability Residence Life without Barriers Ashwood</t>
-  </si>
-  <si>
-    <t>Ermha365 Residential Disability Care Services Paperbark St Doveton</t>
+    <t>Embracia Aged Care Reservoir Outbreak</t>
+  </si>
+  <si>
+    <t>Ermha365 Residential Disability Care Services Doveton</t>
   </si>
   <si>
     <t>FedEx Station Melbourne Airport</t>
@@ -136,15 +127,9 @@
     <t>HEI Schools Emerald Early Learning Centre Emerald</t>
   </si>
   <si>
-    <t>Hamilton Marino 236 Jasper Road McKinnon</t>
-  </si>
-  <si>
     <t>Hello Fresh Warehouse Ravenhall</t>
   </si>
   <si>
-    <t>ISS Factory Level 1 Terminal 2 Melbourne Airport Tullamarine</t>
-  </si>
-  <si>
     <t>Ibis Kingsgate Hotel Melbourne</t>
   </si>
   <si>
@@ -196,12 +181,6 @@
     <t>OnQ Plumbing and Excavations Craigieburn</t>
   </si>
   <si>
-    <t>Oporto Coolaroo</t>
-  </si>
-  <si>
-    <t>Our Lady Help of Christian's Primary School Brunswick East</t>
-  </si>
-  <si>
     <t>Pacific Meat Thomastown</t>
   </si>
   <si>
@@ -212,9 +191,6 @@
   </si>
   <si>
     <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
-  </si>
-  <si>
-    <t>Sacca's Fruit World Broadmeadows Central Shopping Centre</t>
   </si>
   <si>
     <t>St Margaret's Primary School OSHC Maribyrnong</t>
@@ -617,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -644,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -652,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -660,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -676,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -684,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -692,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -716,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -724,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -732,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -740,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -748,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -756,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -764,7 +740,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -772,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -780,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -788,7 +764,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -796,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -804,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -812,7 +788,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -820,7 +796,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -828,7 +804,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -836,7 +812,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -844,7 +820,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -852,7 +828,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -860,7 +836,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -868,7 +844,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -876,7 +852,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -884,7 +860,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -892,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -900,7 +876,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -908,7 +884,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -916,7 +892,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -924,7 +900,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -940,7 +916,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -948,7 +924,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -956,7 +932,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -964,7 +940,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -972,7 +948,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -980,7 +956,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -988,7 +964,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -996,7 +972,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1004,7 +980,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1020,7 +996,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1028,7 +1004,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1036,7 +1012,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1044,7 +1020,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1052,7 +1028,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1060,7 +1036,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1068,7 +1044,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1076,7 +1052,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1084,7 +1060,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1092,7 +1068,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1100,7 +1076,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1108,7 +1084,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1116,7 +1092,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1124,7 +1100,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1132,7 +1108,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1140,7 +1116,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1148,7 +1124,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1156,7 +1132,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1164,7 +1140,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1172,7 +1148,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1180,7 +1156,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1188,7 +1164,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1196,7 +1172,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1204,70 +1180,6 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81">
         <v>6</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,78 +22,30 @@
     <t>Active cases</t>
   </si>
   <si>
-    <t>126 Racecourse Road Public Housing Tower Flemington</t>
-  </si>
-  <si>
     <t>139 Highett St Apartment Complex Richmond</t>
   </si>
   <si>
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
-    <t>3535 Opal Meadow Heights Aged Care Community Meadow Heights</t>
-  </si>
-  <si>
-    <t>Al-Taqwa College Truganina</t>
-  </si>
-  <si>
-    <t>Allbright Manor Aged Care Croydon North Tier 1A</t>
-  </si>
-  <si>
-    <t>Australia Post Distribution Centre Sunshine West</t>
-  </si>
-  <si>
     <t>Australian Lamb Colac East</t>
   </si>
   <si>
-    <t>Baker Bleu Caulfield North</t>
-  </si>
-  <si>
-    <t>Baxter Foods Australia Campbellfield</t>
-  </si>
-  <si>
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
-    <t>Cafe Roco Dandenong</t>
-  </si>
-  <si>
-    <t>Campbellfield Ford Complex Vaccination Clinic Campbellfield</t>
-  </si>
-  <si>
-    <t>Cardinia Lakes Early Learning Centre Pakenham</t>
-  </si>
-  <si>
     <t>Carton Finishing Pty. Ltd. Campbellfield</t>
   </si>
   <si>
-    <t>Chemist Warehouse Fillo Drive Somerton</t>
-  </si>
-  <si>
-    <t>Coles Coburg North Village</t>
-  </si>
-  <si>
-    <t>Coles Pakenham Place Shopping Centre</t>
-  </si>
-  <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
-    <t>Construction Site Olea Apartment Caulfield North</t>
-  </si>
-  <si>
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
     <t>Crusader Caravans Epping</t>
   </si>
   <si>
-    <t>Dandenong Police Station Dandenong</t>
-  </si>
-  <si>
-    <t>DayHab Rehabilitation Treatment Centre Ringwood East</t>
-  </si>
-  <si>
     <t>Embracia Aged Care Reservoir Outbreak</t>
   </si>
   <si>
@@ -106,66 +58,18 @@
     <t>Fine Food Holdings Pty Ltd Dandenong South</t>
   </si>
   <si>
-    <t>Fonterra Manufacturing Workplace Campbellfield</t>
-  </si>
-  <si>
     <t>General Foods Campbellfield</t>
   </si>
   <si>
-    <t>Gladstone Parade Early Learning &amp; Kinder Glenroy</t>
-  </si>
-  <si>
-    <t>Goodstart Early Learning Altona</t>
-  </si>
-  <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
-    <t>Greenvale Primary School</t>
-  </si>
-  <si>
-    <t>HEI Schools Emerald Early Learning Centre Emerald</t>
-  </si>
-  <si>
-    <t>Hello Fresh Warehouse Ravenhall</t>
-  </si>
-  <si>
-    <t>Ibis Kingsgate Hotel Melbourne</t>
-  </si>
-  <si>
-    <t>Industrial Galvanizers Valmont Coatings Campbellfield</t>
-  </si>
-  <si>
-    <t>Inghams Enterprises Thomastown</t>
-  </si>
-  <si>
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
     <t>Lantmannen Unibake Australia Mordialloc</t>
   </si>
   <si>
-    <t>Linfox Somerton National Distribution Centre Somerton</t>
-  </si>
-  <si>
-    <t>Mecca Distribution Centre Warehouse Melbourne Airport</t>
-  </si>
-  <si>
-    <t>Melbourne Assessment Prison West Melbourne</t>
-  </si>
-  <si>
-    <t>Melbourne Metropolitan Remand Centre Ravenhall</t>
-  </si>
-  <si>
-    <t>Melbourne West Police Station Docklands</t>
-  </si>
-  <si>
-    <t>Mill Park Police Station Mill Park</t>
-  </si>
-  <si>
-    <t>MyCentre Childcare Broadmeadows</t>
-  </si>
-  <si>
     <t>Nido Early School Ascot Vale</t>
   </si>
   <si>
@@ -178,21 +82,6 @@
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
-    <t>OnQ Plumbing and Excavations Craigieburn</t>
-  </si>
-  <si>
-    <t>Pacific Meat Thomastown</t>
-  </si>
-  <si>
-    <t>Private Residence Daycare Allumba Way Wollert</t>
-  </si>
-  <si>
-    <t>Ravenhall Correctional Centre Ravenhall</t>
-  </si>
-  <si>
-    <t>Richmond Quarter 261-271 Bridge Road Construction Site Richmond</t>
-  </si>
-  <si>
     <t>St Margaret's Primary School OSHC Maribyrnong</t>
   </si>
   <si>
@@ -202,24 +91,9 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>The Royal Melbourne Hospital Parkville</t>
-  </si>
-  <si>
-    <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
-  </si>
-  <si>
-    <t>The Royal Melbourne Hospital Ward 6SE Parkville</t>
-  </si>
-  <si>
     <t>The Royal Talbot Rehabilitation Centre Kew</t>
   </si>
   <si>
-    <t>ThorwestenCabinets Pakenham</t>
-  </si>
-  <si>
-    <t>Truganina Early Learning Centre Truganina</t>
-  </si>
-  <si>
     <t>Visy Recycling Springvale</t>
   </si>
   <si>
@@ -233,9 +107,6 @@
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital GEM Ward St Albans</t>
   </si>
 </sst>
 </file>
@@ -593,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -620,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -628,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -636,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -644,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -652,7 +523,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -660,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -668,7 +539,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -676,7 +547,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -684,7 +555,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -692,7 +563,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -700,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -708,7 +579,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -716,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -724,7 +595,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -732,7 +603,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -740,7 +611,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -748,7 +619,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -756,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -764,7 +635,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -772,7 +643,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -780,7 +651,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -788,7 +659,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -796,7 +667,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -804,7 +675,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -812,7 +683,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -820,7 +691,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -836,351 +707,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
         <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Cluster name</t>
   </si>
@@ -28,48 +28,57 @@
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
+    <t>3563 Embracia Aged Care Reservoir</t>
+  </si>
+  <si>
+    <t>Apartment Complex Fawkner</t>
+  </si>
+  <si>
     <t>Australian Lamb Colac East</t>
   </si>
   <si>
+    <t>Bread Solutions Braeside</t>
+  </si>
+  <si>
     <t>CS Square Caroline Springs</t>
   </si>
   <si>
     <t>Carton Finishing Pty. Ltd. Campbellfield</t>
   </si>
   <si>
+    <t>Cedar Meats Australia Brooklyn</t>
+  </si>
+  <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
     <t>Costco Wholesale Epping</t>
   </si>
   <si>
-    <t>Crusader Caravans Epping</t>
-  </si>
-  <si>
-    <t>Embracia Aged Care Reservoir Outbreak</t>
-  </si>
-  <si>
     <t>Ermha365 Residential Disability Care Services Doveton</t>
   </si>
   <si>
     <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
-    <t>Fine Food Holdings Pty Ltd Dandenong South</t>
-  </si>
-  <si>
-    <t>General Foods Campbellfield</t>
-  </si>
-  <si>
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
+    <t>Guardian Childcare Caulfield</t>
+  </si>
+  <si>
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
     <t>Lantmannen Unibake Australia Mordialloc</t>
   </si>
   <si>
+    <t>Melbourne Assessment Prison West Melbourne</t>
+  </si>
+  <si>
+    <t>MyCentre Childcare Broadmeadows</t>
+  </si>
+  <si>
     <t>Nido Early School Ascot Vale</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
+    <t>Social Gathering Warrnambool 28 September</t>
+  </si>
+  <si>
     <t>St Margaret's Primary School OSHC Maribyrnong</t>
   </si>
   <si>
@@ -91,7 +103,7 @@
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>The Royal Talbot Rehabilitation Centre Kew</t>
+    <t>The Royal Talbot Rehabilitation Centre</t>
   </si>
   <si>
     <t>Visy Recycling Springvale</t>
@@ -464,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -499,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -507,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -515,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -523,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -531,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -547,7 +559,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -555,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -563,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -579,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -587,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -595,7 +607,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -603,7 +615,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -611,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -619,7 +631,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -627,7 +639,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -635,7 +647,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -643,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -651,7 +663,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -659,7 +671,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -667,7 +679,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -675,7 +687,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -683,7 +695,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -691,7 +703,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -699,7 +711,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -707,7 +719,39 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,22 +22,28 @@
     <t>Active cases</t>
   </si>
   <si>
+    <t>126 Racecourse Road Public Housing Tower Flemington</t>
+  </si>
+  <si>
     <t>139 Highett St Apartment Complex Richmond</t>
   </si>
   <si>
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
-    <t>3563 Embracia Aged Care Reservoir</t>
-  </si>
-  <si>
-    <t>Apartment Complex Fawkner</t>
+    <t>3612 BlueCross Glengowrie Outbreak</t>
+  </si>
+  <si>
+    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East Outbreak</t>
+  </si>
+  <si>
+    <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
   </si>
   <si>
     <t>Australian Lamb Colac East</t>
   </si>
   <si>
-    <t>Bread Solutions Braeside</t>
+    <t>Bread Solutions Braeside Outbreak</t>
   </si>
   <si>
     <t>CS Square Caroline Springs</t>
@@ -46,16 +52,13 @@
     <t>Carton Finishing Pty. Ltd. Campbellfield</t>
   </si>
   <si>
-    <t>Cedar Meats Australia Brooklyn</t>
+    <t>Cedar Meats Australia Brooklyn Outbreak</t>
   </si>
   <si>
     <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
   </si>
   <si>
-    <t>Costco Wholesale Epping</t>
-  </si>
-  <si>
-    <t>Ermha365 Residential Disability Care Services Doveton</t>
+    <t>Embracia Aged Care Reservoir Outbreak</t>
   </si>
   <si>
     <t>FedEx Station Melbourne Airport</t>
@@ -64,7 +67,7 @@
     <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
   </si>
   <si>
-    <t>Guardian Childcare Caulfield</t>
+    <t>Guardian Childcare Caulfield Outbreak</t>
   </si>
   <si>
     <t>Kool Kidz Childcare Narre Warren</t>
@@ -73,12 +76,6 @@
     <t>Lantmannen Unibake Australia Mordialloc</t>
   </si>
   <si>
-    <t>Melbourne Assessment Prison West Melbourne</t>
-  </si>
-  <si>
-    <t>MyCentre Childcare Broadmeadows</t>
-  </si>
-  <si>
     <t>Nido Early School Ascot Vale</t>
   </si>
   <si>
@@ -91,31 +88,31 @@
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
-    <t>Social Gathering Warrnambool 28 September</t>
-  </si>
-  <si>
-    <t>St Margaret's Primary School OSHC Maribyrnong</t>
+    <t>Oceania Meat Processors Laverton North Outbreak</t>
+  </si>
+  <si>
+    <t>Pick It Up Fitness Mulgrave Outbreak</t>
+  </si>
+  <si>
+    <t>Social Gathering Warrnambool 28 Sep Outbreak</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
+    <t>Target Distribution Centre Truganina Outbreak</t>
+  </si>
+  <si>
+    <t>The Robin Hood Inn Drouin West Outbreak</t>
+  </si>
+  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
   </si>
   <si>
-    <t>The Royal Talbot Rehabilitation Centre</t>
-  </si>
-  <si>
     <t>Visy Recycling Springvale</t>
   </si>
   <si>
-    <t>Wallaby Childcare Wollert</t>
-  </si>
-  <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
@@ -476,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -511,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -527,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -535,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -543,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -551,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -559,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -567,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -575,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -591,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -599,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -607,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -615,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -623,7 +620,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -631,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -639,7 +636,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -647,7 +644,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -655,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -663,7 +660,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -671,7 +668,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -679,7 +676,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -687,7 +684,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -695,7 +692,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -703,7 +700,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -711,7 +708,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -719,7 +716,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -727,7 +724,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -735,7 +732,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -743,15 +740,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Cluster name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
+    <t>3600 Belvedere Age Care Noble Park Outbreak</t>
+  </si>
+  <si>
     <t>3612 BlueCross Glengowrie Outbreak</t>
   </si>
   <si>
@@ -46,16 +49,13 @@
     <t>Bread Solutions Braeside Outbreak</t>
   </si>
   <si>
-    <t>CS Square Caroline Springs</t>
-  </si>
-  <si>
-    <t>Carton Finishing Pty. Ltd. Campbellfield</t>
+    <t>CS Square Caroline Springs Outbreak</t>
   </si>
   <si>
     <t>Cedar Meats Australia Brooklyn Outbreak</t>
   </si>
   <si>
-    <t>Community Kids Bayswater Early Education Centre Bayswater North</t>
+    <t>Child's Play Early Learning Centre Tarneit</t>
   </si>
   <si>
     <t>Embracia Aged Care Reservoir Outbreak</t>
@@ -64,12 +64,12 @@
     <t>FedEx Station Melbourne Airport</t>
   </si>
   <si>
-    <t>Green Leaves Early Learning Centre Highlands Craigieburn</t>
-  </si>
-  <si>
     <t>Guardian Childcare Caulfield Outbreak</t>
   </si>
   <si>
+    <t>Inghams Enterprise Somerville Outbreak</t>
+  </si>
+  <si>
     <t>Kool Kidz Childcare Narre Warren</t>
   </si>
   <si>
@@ -94,6 +94,9 @@
     <t>Pick It Up Fitness Mulgrave Outbreak</t>
   </si>
   <si>
+    <t>Robin Hood Inn Drouin West Outbreak</t>
+  </si>
+  <si>
     <t>Social Gathering Warrnambool 28 Sep Outbreak</t>
   </si>
   <si>
@@ -103,10 +106,13 @@
     <t>Target Distribution Centre Truganina Outbreak</t>
   </si>
   <si>
-    <t>The Robin Hood Inn Drouin West Outbreak</t>
-  </si>
-  <si>
     <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
+  </si>
+  <si>
+    <t>The Toolshed Bar Private Event Noojee</t>
+  </si>
+  <si>
+    <t>Turosi Breakwater</t>
   </si>
   <si>
     <t>Visy Recycling Springvale</t>
@@ -473,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -516,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -524,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -532,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -540,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -548,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -556,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -564,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -596,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -604,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -612,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -644,7 +650,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -652,7 +658,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -660,7 +666,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -668,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -684,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -692,7 +698,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -700,7 +706,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -708,7 +714,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -716,7 +722,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -724,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -732,7 +738,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -740,7 +746,23 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Active cases</t>
   </si>
   <si>
-    <t>126 Racecourse Road Public Housing Tower Flemington</t>
-  </si>
-  <si>
     <t>139 Highett St Apartment Complex Richmond</t>
   </si>
   <si>
@@ -61,12 +58,12 @@
     <t>Embracia Aged Care Reservoir Outbreak</t>
   </si>
   <si>
-    <t>FedEx Station Melbourne Airport</t>
-  </si>
-  <si>
     <t>Guardian Childcare Caulfield Outbreak</t>
   </si>
   <si>
+    <t>Hello Fresh Warehouse Ravenhall</t>
+  </si>
+  <si>
     <t>Inghams Enterprise Somerville Outbreak</t>
   </si>
   <si>
@@ -76,10 +73,10 @@
     <t>Lantmannen Unibake Australia Mordialloc</t>
   </si>
   <si>
+    <t>Launch Housing City Edge Crisis Accommodation South Melbourne</t>
+  </si>
+  <si>
     <t>Nido Early School Ascot Vale</t>
-  </si>
-  <si>
-    <t>Nido Early School Glenroy</t>
   </si>
   <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
@@ -479,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -506,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -514,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -522,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -530,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -538,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -546,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -554,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -562,7 +559,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -570,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -586,7 +583,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -594,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -602,7 +599,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -610,7 +607,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -618,7 +615,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -626,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -634,7 +631,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -642,7 +639,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -650,7 +647,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -658,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -666,7 +663,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -674,7 +671,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -682,7 +679,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -690,7 +687,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -698,7 +695,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -706,7 +703,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -714,7 +711,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -722,7 +719,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -738,7 +735,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -746,7 +743,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -754,14 +751,6 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
         <v>21</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Cluster name</t>
   </si>
@@ -40,7 +40,10 @@
     <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
   </si>
   <si>
-    <t>Australian Lamb Colac East</t>
+    <t>4518 Regis Aged Care Fawkner Outbreak</t>
+  </si>
+  <si>
+    <t>AW Window Transport Group Depot North Geelong Outbreak</t>
   </si>
   <si>
     <t>Bread Solutions Braeside Outbreak</t>
@@ -55,6 +58,9 @@
     <t>Child's Play Early Learning Centre Tarneit</t>
   </si>
   <si>
+    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale Outbreak</t>
+  </si>
+  <si>
     <t>Embracia Aged Care Reservoir Outbreak</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Robin Hood Inn Drouin West Outbreak</t>
-  </si>
-  <si>
-    <t>Social Gathering Warrnambool 28 Sep Outbreak</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
@@ -476,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -503,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -519,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -527,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -535,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -551,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -559,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -567,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -575,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -583,7 +586,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -591,7 +594,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -599,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -607,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -615,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -623,7 +626,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -631,7 +634,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -639,7 +642,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -647,7 +650,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -655,7 +658,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -663,7 +666,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -671,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -679,7 +682,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -687,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -703,7 +706,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -711,7 +714,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -719,7 +722,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -727,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -735,7 +738,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -743,7 +746,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -751,6 +754,14 @@
         <v>34</v>
       </c>
       <c r="B34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
         <v>21</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,58 +22,61 @@
     <t>Active cases</t>
   </si>
   <si>
-    <t>139 Highett St Apartment Complex Richmond</t>
-  </si>
-  <si>
     <t>3175 The Bays Aged Care Facility Hastings</t>
   </si>
   <si>
-    <t>3600 Belvedere Age Care Noble Park Outbreak</t>
-  </si>
-  <si>
-    <t>3612 BlueCross Glengowrie Outbreak</t>
-  </si>
-  <si>
-    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East Outbreak</t>
-  </si>
-  <si>
-    <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
-  </si>
-  <si>
-    <t>4518 Regis Aged Care Fawkner Outbreak</t>
-  </si>
-  <si>
-    <t>AW Window Transport Group Depot North Geelong Outbreak</t>
-  </si>
-  <si>
-    <t>Bread Solutions Braeside Outbreak</t>
-  </si>
-  <si>
-    <t>CS Square Caroline Springs Outbreak</t>
-  </si>
-  <si>
-    <t>Cedar Meats Australia Brooklyn Outbreak</t>
+    <t>3563 Embracia Aged Care Reservoir</t>
+  </si>
+  <si>
+    <t>3600 Belvedere Aged Care Noble Park</t>
+  </si>
+  <si>
+    <t>3612 BlueCross Glengowrie</t>
+  </si>
+  <si>
+    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
+  </si>
+  <si>
+    <t>3980 Arcare Keysborough Aged Care Keysborough</t>
+  </si>
+  <si>
+    <t>4075 Ferndale Gardens Aged Care Services Bayswater North</t>
+  </si>
+  <si>
+    <t>4518 Regis Aged Care Fawkner</t>
+  </si>
+  <si>
+    <t>AW Window Transport Group Depot North Geelong</t>
+  </si>
+  <si>
+    <t>Allied Pinnacle Factory Altona North</t>
+  </si>
+  <si>
+    <t>Bread Solutions Braeside</t>
+  </si>
+  <si>
+    <t>CS Square Caroline Springs</t>
+  </si>
+  <si>
+    <t>Cedar Meats Australia Brooklyn</t>
   </si>
   <si>
     <t>Child's Play Early Learning Centre Tarneit</t>
   </si>
   <si>
-    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale Outbreak</t>
-  </si>
-  <si>
-    <t>Embracia Aged Care Reservoir Outbreak</t>
-  </si>
-  <si>
-    <t>Guardian Childcare Caulfield Outbreak</t>
+    <t>Comfort Sleep Bedding Co Thomastown</t>
+  </si>
+  <si>
+    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
+  </si>
+  <si>
+    <t>Guardian Childcare Caulfield</t>
   </si>
   <si>
     <t>Hello Fresh Warehouse Ravenhall</t>
   </si>
   <si>
-    <t>Inghams Enterprise Somerville Outbreak</t>
-  </si>
-  <si>
-    <t>Kool Kidz Childcare Narre Warren</t>
+    <t>Inghams Enterprises Somerville</t>
   </si>
   <si>
     <t>Lantmannen Unibake Australia Mordialloc</t>
@@ -82,7 +85,7 @@
     <t>Launch Housing City Edge Crisis Accommodation South Melbourne</t>
   </si>
   <si>
-    <t>Nido Early School Ascot Vale</t>
+    <t>Monash Health Kingston Centre South 5</t>
   </si>
   <si>
     <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
@@ -91,22 +94,19 @@
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
-    <t>Oceania Meat Processors Laverton North Outbreak</t>
-  </si>
-  <si>
-    <t>Pick It Up Fitness Mulgrave Outbreak</t>
-  </si>
-  <si>
-    <t>Robin Hood Inn Drouin West Outbreak</t>
+    <t>Oceania Meat Processors Laverton North</t>
   </si>
   <si>
     <t>St Vincents Hospital Emergency Department Melbourne</t>
   </si>
   <si>
-    <t>Target Distribution Centre Truganina Outbreak</t>
-  </si>
-  <si>
-    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
+    <t>Target Distribution Centre Truganina</t>
+  </si>
+  <si>
+    <t>The Robin Hood Inn Drouin West</t>
+  </si>
+  <si>
+    <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
   </si>
   <si>
     <t>The Toolshed Bar Private Event Noojee</t>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Footscray Hospital Emergency Department</t>
   </si>
   <si>
     <t>Western Health Sunshine Hospital Emergency Department</t>
@@ -479,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -506,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -514,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -522,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -530,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -538,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -546,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -554,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -562,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -570,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -578,7 +581,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -586,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -594,7 +597,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -602,7 +605,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -610,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -618,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -626,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -634,7 +637,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -642,7 +645,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -650,7 +653,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -666,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -674,7 +677,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -682,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -690,7 +693,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -698,7 +701,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -706,7 +709,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -714,7 +717,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -722,7 +725,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -730,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -754,7 +757,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -762,7 +765,15 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,109 +22,124 @@
     <t>Active cases</t>
   </si>
   <si>
-    <t>3175 The Bays Aged Care Facility Hastings</t>
-  </si>
-  <si>
-    <t>3563 Embracia Aged Care Reservoir</t>
-  </si>
-  <si>
-    <t>3600 Belvedere Aged Care Noble Park</t>
-  </si>
-  <si>
-    <t>3612 BlueCross Glengowrie</t>
-  </si>
-  <si>
-    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
-  </si>
-  <si>
-    <t>3980 Arcare Keysborough Aged Care Keysborough</t>
-  </si>
-  <si>
-    <t>4075 Ferndale Gardens Aged Care Services Bayswater North</t>
-  </si>
-  <si>
-    <t>4518 Regis Aged Care Fawkner</t>
-  </si>
-  <si>
-    <t>AW Window Transport Group Depot North Geelong</t>
-  </si>
-  <si>
-    <t>Allied Pinnacle Factory Altona North</t>
-  </si>
-  <si>
-    <t>Bread Solutions Braeside</t>
-  </si>
-  <si>
-    <t>CS Square Caroline Springs</t>
-  </si>
-  <si>
-    <t>Cedar Meats Australia Brooklyn</t>
-  </si>
-  <si>
-    <t>Child's Play Early Learning Centre Tarneit</t>
-  </si>
-  <si>
-    <t>Comfort Sleep Bedding Co Thomastown</t>
-  </si>
-  <si>
-    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
-  </si>
-  <si>
-    <t>Guardian Childcare Caulfield</t>
-  </si>
-  <si>
-    <t>Hello Fresh Warehouse Ravenhall</t>
-  </si>
-  <si>
-    <t>Inghams Enterprises Somerville</t>
-  </si>
-  <si>
-    <t>Lantmannen Unibake Australia Mordialloc</t>
-  </si>
-  <si>
-    <t>Launch Housing City Edge Crisis Accommodation South Melbourne</t>
-  </si>
-  <si>
-    <t>Monash Health Kingston Centre South 5</t>
-  </si>
-  <si>
-    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B</t>
-  </si>
-  <si>
-    <t>Northern Health The Northern Hospital Epping</t>
-  </si>
-  <si>
-    <t>Oceania Meat Processors Laverton North</t>
-  </si>
-  <si>
-    <t>St Vincents Hospital Emergency Department Melbourne</t>
-  </si>
-  <si>
-    <t>Target Distribution Centre Truganina</t>
-  </si>
-  <si>
-    <t>The Robin Hood Inn Drouin West</t>
-  </si>
-  <si>
-    <t>The Royal Melbourne Hospital Parkville Emergency Department</t>
-  </si>
-  <si>
-    <t>The Toolshed Bar Private Event Noojee</t>
-  </si>
-  <si>
-    <t>Turosi Breakwater</t>
-  </si>
-  <si>
-    <t>Visy Recycling Springvale</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Footscray Hospital Emergency Department</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department</t>
+    <t>3153 Sacred Heart Community St Kilda Tier 1B Outbreak</t>
+  </si>
+  <si>
+    <t>3175 The Bays Aged Care Facility Hastings Outbreak</t>
+  </si>
+  <si>
+    <t>3600 Belvedere Aged Care Noble Park Outbreak</t>
+  </si>
+  <si>
+    <t>3612 BlueCross Glengowrie Outbreak</t>
+  </si>
+  <si>
+    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East Outbreak</t>
+  </si>
+  <si>
+    <t>3980 Arcare Keysborough Aged Care Keysborough Outbreak</t>
+  </si>
+  <si>
+    <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
+  </si>
+  <si>
+    <t>4518 Regis Aged Care Fawkner Outbreak</t>
+  </si>
+  <si>
+    <t>AW Window Transport Group Depot North Geelong Outbreak</t>
+  </si>
+  <si>
+    <t>Allied Pinnacle Factory Altona North Outbreak</t>
+  </si>
+  <si>
+    <t>Bespoke Childcare Dingley Village Outbreak</t>
+  </si>
+  <si>
+    <t>Bread Solutions Braeside Outbreak</t>
+  </si>
+  <si>
+    <t>CS Square Caroline Springs Outbreak</t>
+  </si>
+  <si>
+    <t>Child's Play Early Learning Centre Tarneit Outbreak</t>
+  </si>
+  <si>
+    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale Outbreak</t>
+  </si>
+  <si>
+    <t>Essential Caravans Somerton Outbreak</t>
+  </si>
+  <si>
+    <t>Guardian Childcare Caulfield Outbreak</t>
+  </si>
+  <si>
+    <t>Hello Fresh Warehouse Ravenhall Outbreak</t>
+  </si>
+  <si>
+    <t>Inghams Enterprises Somerville Outbreak</t>
+  </si>
+  <si>
+    <t>Lantmannen Unibake Australia Mordialloc Outbreak</t>
+  </si>
+  <si>
+    <t>Launch Housing City Edge Crisis Accommodation South Melbourne Outbreak</t>
+  </si>
+  <si>
+    <t>MacKillop Family Services Residential Facility Glenroy Outbreak</t>
+  </si>
+  <si>
+    <t>Melbourne Assessment Prison West Melbourne Outbreak</t>
+  </si>
+  <si>
+    <t>Melbourne Youth Justice Centre Parkville Outbreak</t>
+  </si>
+  <si>
+    <t>Mildura Police Station Mildura Outbreak</t>
+  </si>
+  <si>
+    <t>Monash Health Kingston Centre South 5 Outbreak</t>
+  </si>
+  <si>
+    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B Outbreak</t>
+  </si>
+  <si>
+    <t>Northern Health The Northern Hospital Epping Outbreak</t>
+  </si>
+  <si>
+    <t>Oceania Meat Processors Laverton North Outbreak</t>
+  </si>
+  <si>
+    <t>Public Housing 140 Brunswick Street Fitzroy Outbreak</t>
+  </si>
+  <si>
+    <t>Shawlands Caravan Park Dandenong South Outbreak</t>
+  </si>
+  <si>
+    <t>St Vincents Hospital Emergency Department Melbourne Outbreak</t>
+  </si>
+  <si>
+    <t>Target Distribution Centre Truganina Outbreak</t>
+  </si>
+  <si>
+    <t>The Robin Hood Inn Drouin West Outbreak</t>
+  </si>
+  <si>
+    <t>The Toolshed Bar Private Event Noojee Outbreak</t>
+  </si>
+  <si>
+    <t>Turosi Breakwater Outbreak</t>
+  </si>
+  <si>
+    <t>Visy Recycling Springvale Outbreak</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department Outbreak</t>
+  </si>
+  <si>
+    <t>Western Health Footscray Hospital Emergency Department Outbreak</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department Outbreak</t>
   </si>
 </sst>
 </file>
@@ -482,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -509,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -517,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -533,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -541,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -557,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -573,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -581,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -589,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -597,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -613,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -621,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -629,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -653,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -677,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -685,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -693,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -701,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -709,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -717,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -725,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -733,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -741,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -749,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -757,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -765,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -773,7 +788,47 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Cluster name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Active cases</t>
   </si>
   <si>
+    <t>139 Highett St Apartment Complex Richmond Outbreak</t>
+  </si>
+  <si>
     <t>3153 Sacred Heart Community St Kilda Tier 1B Outbreak</t>
   </si>
   <si>
@@ -88,21 +91,18 @@
     <t>MacKillop Family Services Residential Facility Glenroy Outbreak</t>
   </si>
   <si>
-    <t>Melbourne Assessment Prison West Melbourne Outbreak</t>
+    <t>Melbourne Custody Centre Melbourne Outbreak</t>
   </si>
   <si>
     <t>Melbourne Youth Justice Centre Parkville Outbreak</t>
   </si>
   <si>
-    <t>Mildura Police Station Mildura Outbreak</t>
+    <t>Metro Tunnel Shine Domain Site Albert Road Construction Site South Melbourne Outbreak</t>
   </si>
   <si>
     <t>Monash Health Kingston Centre South 5 Outbreak</t>
   </si>
   <si>
-    <t>Northern Health Northern Hospital Epping Emergency Department Tier 1B Outbreak</t>
-  </si>
-  <si>
     <t>Northern Health The Northern Hospital Epping Outbreak</t>
   </si>
   <si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Public Housing 140 Brunswick Street Fitzroy Outbreak</t>
+  </si>
+  <si>
+    <t>Public housing 33 Alfred Street North Melbourne Outbreak</t>
   </si>
   <si>
     <t>Shawlands Caravan Park Dandenong South Outbreak</t>
@@ -497,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -524,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -532,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -540,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -548,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -556,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -564,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -572,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -580,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -588,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -596,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -604,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -612,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -628,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -636,7 +639,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -644,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -652,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -660,7 +663,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -668,7 +671,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -676,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -684,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -692,7 +695,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -700,7 +703,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -724,7 +727,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -732,7 +735,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -748,7 +751,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -756,7 +759,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -764,7 +767,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -772,7 +775,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -780,7 +783,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -788,7 +791,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -796,7 +799,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -804,7 +807,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -812,7 +815,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -820,7 +823,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -828,6 +831,14 @@
         <v>41</v>
       </c>
       <c r="B41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
         <v>24</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,135 +14,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>Cluster name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Cluster Name</t>
   </si>
   <si>
     <t>Active cases</t>
   </si>
   <si>
-    <t>139 Highett St Apartment Complex Richmond Outbreak</t>
-  </si>
-  <si>
-    <t>3153 Sacred Heart Community St Kilda Tier 1B Outbreak</t>
-  </si>
-  <si>
-    <t>3175 The Bays Aged Care Facility Hastings Outbreak</t>
-  </si>
-  <si>
-    <t>3600 Belvedere Aged Care Noble Park Outbreak</t>
-  </si>
-  <si>
-    <t>3612 BlueCross Glengowrie Outbreak</t>
-  </si>
-  <si>
-    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East Outbreak</t>
-  </si>
-  <si>
-    <t>3980 Arcare Keysborough Aged Care Keysborough Outbreak</t>
-  </si>
-  <si>
-    <t>4075 Ferndale Gardens Aged Care Services Bayswater North Outbreak</t>
-  </si>
-  <si>
-    <t>4518 Regis Aged Care Fawkner Outbreak</t>
-  </si>
-  <si>
-    <t>AW Window Transport Group Depot North Geelong Outbreak</t>
-  </si>
-  <si>
-    <t>Allied Pinnacle Factory Altona North Outbreak</t>
-  </si>
-  <si>
-    <t>Bespoke Childcare Dingley Village Outbreak</t>
-  </si>
-  <si>
-    <t>Bread Solutions Braeside Outbreak</t>
-  </si>
-  <si>
-    <t>CS Square Caroline Springs Outbreak</t>
-  </si>
-  <si>
-    <t>Child's Play Early Learning Centre Tarneit Outbreak</t>
-  </si>
-  <si>
-    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale Outbreak</t>
-  </si>
-  <si>
-    <t>Essential Caravans Somerton Outbreak</t>
-  </si>
-  <si>
-    <t>Guardian Childcare Caulfield Outbreak</t>
-  </si>
-  <si>
-    <t>Hello Fresh Warehouse Ravenhall Outbreak</t>
-  </si>
-  <si>
-    <t>Inghams Enterprises Somerville Outbreak</t>
-  </si>
-  <si>
-    <t>Lantmannen Unibake Australia Mordialloc Outbreak</t>
-  </si>
-  <si>
-    <t>Launch Housing City Edge Crisis Accommodation South Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>MacKillop Family Services Residential Facility Glenroy Outbreak</t>
-  </si>
-  <si>
-    <t>Melbourne Custody Centre Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>Melbourne Youth Justice Centre Parkville Outbreak</t>
-  </si>
-  <si>
-    <t>Metro Tunnel Shine Domain Site Albert Road Construction Site South Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>Monash Health Kingston Centre South 5 Outbreak</t>
-  </si>
-  <si>
-    <t>Northern Health The Northern Hospital Epping Outbreak</t>
-  </si>
-  <si>
-    <t>Oceania Meat Processors Laverton North Outbreak</t>
-  </si>
-  <si>
-    <t>Public Housing 140 Brunswick Street Fitzroy Outbreak</t>
-  </si>
-  <si>
-    <t>Public housing 33 Alfred Street North Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>Shawlands Caravan Park Dandenong South Outbreak</t>
-  </si>
-  <si>
-    <t>St Vincents Hospital Emergency Department Melbourne Outbreak</t>
-  </si>
-  <si>
-    <t>Target Distribution Centre Truganina Outbreak</t>
-  </si>
-  <si>
-    <t>The Robin Hood Inn Drouin West Outbreak</t>
-  </si>
-  <si>
-    <t>The Toolshed Bar Private Event Noojee Outbreak</t>
-  </si>
-  <si>
-    <t>Turosi Breakwater Outbreak</t>
-  </si>
-  <si>
-    <t>Visy Recycling Springvale Outbreak</t>
-  </si>
-  <si>
-    <t>Werribee Mercy Hospital Emergency Department Outbreak</t>
-  </si>
-  <si>
-    <t>Western Health Footscray Hospital Emergency Department Outbreak</t>
-  </si>
-  <si>
-    <t>Western Health Sunshine Hospital Emergency Department Outbreak</t>
+    <t>3153 Sacred Heart Community St Kilda Tier 1A</t>
+  </si>
+  <si>
+    <t>3600 Belvedere Aged Care Noble Park</t>
+  </si>
+  <si>
+    <t>3612 BlueCross Glengowrie</t>
+  </si>
+  <si>
+    <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
+  </si>
+  <si>
+    <t>3980 Arcare Keysborough Aged Care Keysborough</t>
+  </si>
+  <si>
+    <t>4075 Homestyle Aged Care Ferndale Gardens Aged Care Services Bayswater North</t>
+  </si>
+  <si>
+    <t>4518 Regis Aged Care Fawkner</t>
+  </si>
+  <si>
+    <t>Bespoke Childcare Dingley Village</t>
+  </si>
+  <si>
+    <t>Child's Play Early Learning Centre Tarneit</t>
+  </si>
+  <si>
+    <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
+  </si>
+  <si>
+    <t>Guardian Childcare Caulfield</t>
+  </si>
+  <si>
+    <t>Hello Fresh Warehouse Ravenhall</t>
+  </si>
+  <si>
+    <t>Inghams Enterprises Somerville</t>
+  </si>
+  <si>
+    <t>JBS Australia Brooklyn</t>
+  </si>
+  <si>
+    <t>Launch Housing City Edge Crisis Accommodation South Melbourne</t>
+  </si>
+  <si>
+    <t>MacKillop Family Services Residential Facility Glenroy</t>
+  </si>
+  <si>
+    <t>Melbourne Custody Centre Melbourne</t>
+  </si>
+  <si>
+    <t>Metro Tunnel Shine Domain Site Albert Road Construction Site South Melbourne</t>
+  </si>
+  <si>
+    <t>Northern Health The Northern Hospital Epping</t>
+  </si>
+  <si>
+    <t>Oceania Meat Processors Laverton North</t>
+  </si>
+  <si>
+    <t>Shawlands Caravan Park Dandenong South</t>
+  </si>
+  <si>
+    <t>St Vincents Hospital Emergency Department Melbourne</t>
+  </si>
+  <si>
+    <t>The Robin Hood Inn Drouin West</t>
+  </si>
+  <si>
+    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
+  </si>
+  <si>
+    <t>The Royal Children's Hospital Parkville</t>
+  </si>
+  <si>
+    <t>The Toolshed Bar Private Event Noojee</t>
+  </si>
+  <si>
+    <t>Werribee Mercy Hospital Emergency Department</t>
+  </si>
+  <si>
+    <t>Western Health Sunshine Hospital Emergency Department</t>
   </si>
 </sst>
 </file>
@@ -500,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -527,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -535,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -543,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -551,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -559,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -567,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -575,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -583,7 +544,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -591,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -599,7 +560,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -607,7 +568,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -615,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -623,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -631,7 +592,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -639,7 +600,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -647,7 +608,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -655,7 +616,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -671,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -679,7 +640,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -687,7 +648,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -695,7 +656,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -703,7 +664,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -727,7 +688,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -735,110 +696,6 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
         <v>24</v>
       </c>
     </row>

--- a/vic-key-outbreaks_0_prior.xlsx
+++ b/vic-key-outbreaks_0_prior.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Cluster Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Cluster</t>
   </si>
   <si>
     <t>Active cases</t>
@@ -34,6 +34,9 @@
     <t>3684 Homestyle Aged Care Langford Grange Cranbourne East</t>
   </si>
   <si>
+    <t>3824 Estia Health South Morang</t>
+  </si>
+  <si>
     <t>3980 Arcare Keysborough Aged Care Keysborough</t>
   </si>
   <si>
@@ -43,12 +46,12 @@
     <t>4518 Regis Aged Care Fawkner</t>
   </si>
   <si>
+    <t>ACFS Port Logistics Altona</t>
+  </si>
+  <si>
     <t>Bespoke Childcare Dingley Village</t>
   </si>
   <si>
-    <t>Child's Play Early Learning Centre Tarneit</t>
-  </si>
-  <si>
     <t>Community Kids Pascoe Vale Early Education Centre Pascoe Vale</t>
   </si>
   <si>
@@ -58,30 +61,21 @@
     <t>Hello Fresh Warehouse Ravenhall</t>
   </si>
   <si>
+    <t>Honeyeater Hairdressers Bendigo</t>
+  </si>
+  <si>
     <t>Inghams Enterprises Somerville</t>
   </si>
   <si>
     <t>JBS Australia Brooklyn</t>
   </si>
   <si>
-    <t>Launch Housing City Edge Crisis Accommodation South Melbourne</t>
-  </si>
-  <si>
-    <t>MacKillop Family Services Residential Facility Glenroy</t>
-  </si>
-  <si>
-    <t>Melbourne Custody Centre Melbourne</t>
-  </si>
-  <si>
     <t>Metro Tunnel Shine Domain Site Albert Road Construction Site South Melbourne</t>
   </si>
   <si>
     <t>Northern Health The Northern Hospital Epping</t>
   </si>
   <si>
-    <t>Oceania Meat Processors Laverton North</t>
-  </si>
-  <si>
     <t>Shawlands Caravan Park Dandenong South</t>
   </si>
   <si>
@@ -91,13 +85,13 @@
     <t>The Robin Hood Inn Drouin West</t>
   </si>
   <si>
-    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1B</t>
+    <t>The Royal Children's Hospital Melbourne Emergency Department Parkville Tier 1A</t>
   </si>
   <si>
     <t>The Royal Children's Hospital Parkville</t>
   </si>
   <si>
-    <t>The Toolshed Bar Private Event Noojee</t>
+    <t>Visy Recycling Springvale</t>
   </si>
   <si>
     <t>Werribee Mercy Hospital Emergency Department</t>
@@ -461,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -504,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -512,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -520,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -528,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -536,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -544,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -552,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -560,7 +554,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -568,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -576,7 +570,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -592,7 +586,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -608,7 +602,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -616,7 +610,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -632,7 +626,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -640,7 +634,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -648,7 +642,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -656,7 +650,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -664,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -672,7 +666,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -680,23 +674,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
